--- a/Priming/Jianti1.xlsx
+++ b/Priming/Jianti1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericpelzl/Documents/GitHub/cbs592/Priming/psychopy/Jianti1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F49175-F5E2-944A-AC49-60ED0B61B9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A811844-1A6B-C34B-9889-97325CE6DEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{23BFEEAD-3FD8-204C-BA34-CD36C4A1FFC3}"/>
   </bookViews>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BB150E-9F44-2447-B6C6-18CABAB240CD}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44:C57"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -899,7 +899,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -910,7 +910,7 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1086,7 +1086,7 @@
         <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.25">
@@ -1097,7 +1097,7 @@
         <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.25">
